--- a/userSystem/leaderboard.xlsx
+++ b/userSystem/leaderboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LeaderBoard\userSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LeaderBoard\avengers-leaderboard\userSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C3581B-CE5C-431D-B4CF-52DD25ADA52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6C02A6-AD1E-46BE-9DF2-C361C77AD5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="F1:L1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,6 +489,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/userSystem/leaderboard.xlsx
+++ b/userSystem/leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LeaderBoard\avengers-leaderboard\userSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6C02A6-AD1E-46BE-9DF2-C361C77AD5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF8981-A150-4C63-9719-2EE503C32F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/userSystem/leaderboard.xlsx
+++ b/userSystem/leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LeaderBoard\avengers-leaderboard\userSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF8981-A150-4C63-9719-2EE503C32F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1D75F5-151F-430F-823C-E85067D76B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="9540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>User</t>
   </si>
@@ -47,20 +47,32 @@
   </si>
   <si>
     <t>giggo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wins </t>
+  </si>
+  <si>
+    <t>Looses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,8 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8E98A5"/>
+        <fgColor theme="3"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -89,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -396,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +428,7 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +438,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -430,8 +455,14 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -441,8 +472,14 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -452,8 +489,14 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -463,8 +506,14 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -474,8 +523,14 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -483,6 +538,12 @@
         <v>1013</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>

--- a/userSystem/leaderboard.xlsx
+++ b/userSystem/leaderboard.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LeaderBoard\avengers-leaderboard\userSystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1D75F5-151F-430F-823C-E85067D76B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="9540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>User</t>
   </si>
@@ -31,6 +26,12 @@
     <t>Placement</t>
   </si>
   <si>
+    <t xml:space="preserve">Wins </t>
+  </si>
+  <si>
+    <t>Looses</t>
+  </si>
+  <si>
     <t>Xiphias</t>
   </si>
   <si>
@@ -47,84 +48,75 @@
   </si>
   <si>
     <t>giggo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wins </t>
-  </si>
-  <si>
-    <t>Looses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor rgb="FF1F497D"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -414,21 +406,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.85546875" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,103 +434,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>953</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1049</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>986</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1053</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B6">
+        <v>1040</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1013</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1028</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1007</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1015</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
       <c r="B7">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -544,12 +539,21 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>